--- a/outputs/DELHI1.xlsx
+++ b/outputs/DELHI1.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI is motivated to accomplish the task of finding something to contribute to JabRef, which involves gathering relevant information. Given ABI's comprehensive information processing style, they would naturally consider reading the available information as an essential step toward achieving this goal. The page provides various sections, including features, installation, and contributing, which ABI would find useful to read and understand fully before taking any further actions.</t>
+Why: ABI is motivated to accomplish tasks and will likely consider reading available information as a necessary step to understand how to contribute to JabRef. Additionally, ABI's comprehensive information processing style means they will want to gather all relevant information before proceeding. The page provides detailed information about the project, which aligns with ABI's need to form a complete understanding.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a well-structured layout with clear sections such as "Features," "Installation," "Bug Reports, Suggestions, Other Feedback," and "Contributing." These sections contain detailed information that ABI can read to understand how to contribute to JabRef. The layout aligns with ABI's comprehensive information processing style, allowing them to gather the necessary information before proceeding. ABI is also motivated to find something to contribute, and the content on this page supports that goal.</t>
+Why: The page contains a comprehensive amount of information about JabRef, including sections on features, installation, bug reports, suggestions, and contributing. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The detailed information provided will help ABI understand what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: If ABI reads the available information on the page, they will know they are making progress toward their goal of contributing to JabRef. The page is well-organized with clear sections such as "Contributing," "Bug Reports, Suggestions, Other Feedback," and detailed instructions on how to get involved. This aligns with ABI's motivation to accomplish the task and their comprehensive information processing style. The information provided is detailed and adequate for ABI to understand the steps needed to contribute, ensuring they feel confident about their progress.</t>
+Why: After reading the available information on the page, ABI will know they are making progress toward their goal of finding something to contribute to JabRef. The page provides detailed sections on contributing, including guidelines and steps to follow, which aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The information is well-organized and thorough, ensuring ABI gets all the information they need.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contributing" section on the page clearly includes a link labeled "Learn how to help," which is a direct and intuitive call to action for someone looking to contribute to JabRef. ABI, motivated to find ways to contribute, will see this as the next logical step. Furthermore, ABI's comprehensive information processing style will prompt them to click on this link to gather more detailed instructions and information on how to help. The clear labeling and placement of the link make it easy for ABI to know what to do next.</t>
+Why: The "Learn how to help" link is clearly labeled under the "Contributing" section, which is relevant to ABI's goal of finding something to contribute to JabRef. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The page provides sufficient context and guidance, making it clear that clicking this link will provide more information on how to contribute.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Learn how to help," ABI lands on a page specifically dedicated to contributing to JabRef. This page is well-organized with clear headings and sections that cater to different types of contributors, such as students, new open-source contributors, and lecturers. Each section provides relevant links and further instructions (e.g., lists of good first issues, university projects, documentation for developers), which align with ABI's comprehensive information processing style. ABI will recognize that they are on the right track and making progress toward their goal. The detailed and categorized information ensures that ABI gets all the necessary information to move forward.</t>
+Why: After clicking "Learn how to help," ABI will land on a page that provides clear and detailed information on various ways to contribute to JabRef. The page is well-organized with sections tailored to different types of contributors (e.g., students, new to open source, lecturers). This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The specific guidance and links to further resources ensure that ABI will know they are making progress toward their goal and will get all the information they need.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and structured layout with specific sections tailored to different types of contributors (e.g., students, new to open source, lecturers). Each section has actionable links and additional information sources, such as "list of good first issues" and "documentation for developers." This aligns with ABI's motivation to contribute and their comprehensive information processing style. The clear headings and well-organized content make it easy for ABI to know what to do at this step, and the page provides enough detailed information for ABI to take the action confidently.</t>
+Why: The page is clearly titled "Contribute to JabRef" and provides detailed information on various ways to contribute, tailored to different types of contributors. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The page is well-organized and provides clear instructions and links, making it easy for ABI to know what to do at this step and to take the action of reading the page.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After reading the page, ABI will know they did the right thing and are making progress toward their goal. The page is well-organized with specific sections for different types of contributors, making it clear what steps to take next. Each section provides detailed instructions and links to additional resources (e.g., "list of good first issues," "documentation for developers"), which align with ABI's comprehensive information processing style. This ensures ABI can gather all the necessary information to contribute effectively to JabRef, reinforcing their motivation and confirming they are on the right track.</t>
+Why: After reading the page, ABI will know they did the right thing and are making progress toward their goal. The page provides clear, detailed information on various ways to contribute, tailored to different types of contributors. This aligns with ABI's motivation to accomplish tasks and their comprehensive information processing style. The specific guidance and links to further resources ensure that ABI gets all the information they need to proceed with contributing to JabRef.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly outlines different options for contributors, including a link titled "list of good first issues." This link is prominently placed under sections specifically relevant to students and new open-source contributors, which would align well with ABI's motivations. Given ABI's comprehensive information processing style, they would likely read through the provided information and recognize that clicking this link is the next logical step to find specific issues they can contribute to. The clear labeling and logical placement of the link make it easy for ABI to know what to do at this step.</t>
+Why: The page clearly lists "list of good first issues" as a link under multiple sections, making it evident that clicking this link will provide ABI with a list of issues suitable for beginners. This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The clear labeling and context provided on the page make it easy for ABI to know what to do at this step and to take the action of clicking the link.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "list of good first issues" link, ABI lands on a GitHub issues page specifically filtered for "good first issues" related to JabRef. The page displays a list of issues clearly labeled as "good first issue," along with additional tags such as "type: enhancement" and "type: bug." This provides ABI with a comprehensive list of potential contributions that are suitable for beginners. The clear labeling and structured presentation align with ABI's comprehensive information processing style, allowing them to easily identify and select an issue to work on. This page confirms to ABI that they are making progress toward their goal of finding something to contribute to JabRef and provides all the necessary information to proceed.</t>
+Why: After clicking on the "list of good first issues," ABI will land on a page that lists various issues labeled as "good first issue." This page provides a clear and organized list of tasks that are suitable for beginners, which aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The detailed list of issues, along with labels and descriptions, ensures that ABI will know they did the right thing and are making progress toward their goal. The information provided is sufficient for ABI to understand the available tasks and choose one to contribute to.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page lists various "good first issues" with clear labels and tags, making it easy for ABI to understand the types of issues available for contribution. The issues are organized and labeled in a user-friendly manner, providing essential details such as the issue title, type, and additional tags. This structure aligns with ABI's comprehensive information processing style, allowing them to read through the options and click on something they are interested in to learn more. ABI is motivated to find a contribution opportunity, and this page provides a straightforward and efficient way to browse and select an issue.</t>
+Why: The page provides a clear and organized list of issues labeled as "good first issue," with each issue having a brief description and relevant tags. This aligns with ABI's motivation to find something to contribute to and their comprehensive information processing style. The layout and labeling make it easy for ABI to read the options and click on something they want to know more about. The page is good enough for ABI to take this action as it provides sufficient context and information for each issue.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page ABI lands on after clicking an issue contains complex technical details, graphs, and a lengthy discussion thread. While this might be sufficient for a user with high technical proficiency, ABI's low confidence in unfamiliar computing tasks (Computer Self-Efficacy) and preference for process-oriented learning (Learning Style) might make it challenging for them to understand and feel confident about making progress. The overwhelming amount of technical information and discussion could be difficult for ABI to process comprehensively, leading to uncertainty about whether they are on the right track and have all the information they need.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While the page provides detailed information about the issue, including comments and discussions, the amount of information and technical details might be overwhelming for ABI. ABI's comprehensive information processing style means they need to gather all relevant information, but the extensive and technical nature of the content might make it difficult for them to feel confident that they are making progress toward their goal. Additionally, ABI's low computer self-efficacy might cause them to feel uncertain about whether they are doing the right thing, especially if they encounter unfamiliar technical terms or complex discussions.</t>
         </is>
       </c>
     </row>

--- a/outputs/DELHI1.xlsx
+++ b/outputs/DELHI1.xlsx
@@ -424,236 +424,195 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Yes, ABI would likely consider reading the available information as a necessary step toward the overall goal of contributing to JabRef. This aligns with ABI's comprehensive information processing style and her preference to gather all available information before proceeding.
-The image shows JabRef's GitHub repository page with extensive documentation, including:
-- A detailed feature list
-- Contributing guidelines
-- License information
-- Installation instructions
-- Bug reports and feedback sections
-Given ABI's characteristics:
-1. She prefers to thoroughly understand systems before using them
-2. She likes to gather comprehensive information
-3. She tends to be risk-averse and wants to avoid mistakes
-Reading through this documentation would be a natural and important first step for ABI because:
-- It helps her understand what JabRef is and how it works
-- It provides clear guidelines on how to contribute properly
-- It reduces the risk of making mistakes by understanding the project's requirements and standards
-- It aligns with her methodical approach to problem-solving
-So yes, ABI would definitely see this information-gathering phase as an essential step toward achieving her goal of contributing to JabRef.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+Why: This aligns with ABI's characteristics because:
+- ABI prefers to gather comprehensive information before taking action (Information Processing Style)
+- Given her low confidence with unfamiliar tasks (Computer Self-Efficacy), she would want to understand what JabRef is before contributing
+- Her process-oriented learning style means she would naturally want to read and understand the available information first before proceeding with any contribution
+- The page provides detailed information about JabRef, its features, and contribution guidelines, which supports ABI's need for thorough understanding before taking action</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Yes, this is a clear webpage showing JabRef's GitHub repository and documentation. The page provides comprehensive information about JabRef, which is a bibliography management software. The layout is well-organized with:
-1. A navigation menu on the left
-2. Recent updates/commits in the center
-3. Detailed documentation about features and capabilities
-4. Clear sections on:
-   - Features
-   - Contributing guidelines
-   - License information
-   - Installation instructions
-   - Bug reporting procedures
-The information is presented in a readable format with proper headings, bullet points, and sections, making it easy to read and understand what JabRef is and how to contribute to it. The page includes both technical details for developers and general information about the software's functionality.
-For someone looking to read available information about contributing to JabRef, this page provides sufficient context and detail to understand the project. The contributing section specifically outlines how to get involved, making it appropriate for this task.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. None of the Above (Information Overload)
+Why: Although ABI wants to read and understand information thoroughly, she will struggle here because:
+- The page contains an overwhelming amount of technical information and features scattered across different sections (Information Processing Style would be challenged by this)
+- There are many technical terms and jargon (like "BibTeX", "LaTeX", "CiteSeer") without clear explanations, which would make ABI uncomfortable due to her low Computer Self-Efficacy
+- The page layout presents too much information at once without a clear structure or guidance on where to start for new contributors (None of the Above - Information Overload)
+- While ABI wants to gather comprehensive information, the scattered and technical nature of the content would make it difficult for her to process and understand what exactly she needs to read to contribute</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>This appears to be the GitHub repository page for JabRef, a bibliography management software. The page shows various sections including:
-1. Recent repository activity and commits
-2. A detailed description of JabRef's features and capabilities
-3. Information about contributing to the project
-4. Documentation about the software's functionality
-For someone looking to contribute to JabRef, this page provides comprehensive information through:
-- A clear "Contributing" section
-- Feature descriptions
-- Bug reporting guidelines
-- License information
-- Installation and setup instructions
-The page is well-organized and includes both technical details and guidance for potential contributors. A user would be able to confirm they're making progress in understanding how to contribute because:
-1. The information is clearly structured
-2. There are specific sections about how to get involved
-3. The contribution guidelines are explicitly stated
-4. Links to additional resources are provided
-This page would give someone all the initial information needed to understand the project and how to start contributing to it.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. None of the Above (Lack of Clear Progress Indicators)
+Why: ABI won't be confident she's making progress because:
+- There's no clear indication or feedback that shows she's gathered all the necessary information to start contributing (Information Processing Style needs clear completion markers)
+- With her low Computer Self-Efficacy, she won't be sure if she's understood all the technical information correctly or if she's missed something important
+- The page lacks a clear structure or checklist that would help ABI confirm she's read everything needed (None of the Above - no progress indicators)
+- There's no clear transition point or next steps outlined after reading the information, making it unclear if she's ready to move forward with contributing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yes, ABI would be able to take this action. The GitHub page for JabRef clearly shows a "Contributing" section near the bottom of the page with a link that says "Learn how to help." This is a straightforward and clear call-to-action that aligns well with Abi's characteristics:
-1. Abi is a methodical learner who likes to gather information before proceeding
-2. She prefers to understand processes thoroughly
-3. She's technology risk-averse and likes clear documentation
-The page layout makes it easy to find this information by scrolling, and the "Contributing" section is well-marked and contains the obvious next step of "Learn how to help." The page appears to be comprehensive documentation about JabRef, which would appeal to Abi's information-gathering preferences.
-The action of clicking "Learn how to help" is:
-- Low-risk
-- Clearly labeled
-- A logical first step for learning about contribution
-- Part of well-structured documentation
-These aspects all align with Abi's careful, process-oriented approach to learning new systems.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Attitude Toward Risk
+Why: ABI would feel comfortable clicking 'Learn how to help' because:
+- The link text "Learn how to help" is clear and descriptive, indicating it will provide instructions on how to contribute (aligns with her Process-oriented Learning Style)
+- The phrase "Learn how" suggests a guided, step-by-step approach which matches ABI's preference for process-oriented learning
+- It's a low-risk action as the text clearly indicates it's for learning purposes (matches her Risk-averse Attitude)
+- The link appears to be a logical next step in gathering comprehensive information about contributing (aligns with her Information Processing Style)
+- The text implies it will provide guidance rather than requiring immediate action or tinkering</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Looking at this contribution page for JabRef, if someone clicks to learn how to help, they would definitely know they're making progress because:
-1. The page clearly presents different paths for contributors based on their background/interests:
-- Options for non-programmers vs programmers
-- Special sections for students
-- Options for those new to open source
-- Information for lecturers
-- Resources for those wanting to contribute code
-2. The page provides specific next steps and resources:
-- Links to the community members page
-- List of good first issues
-- Links to CONTRIBUTING.md
-- University project options
-- Documentation for developers
-3. The layout is well-organized with:
-- Clear headings for each contributor type
-- "Join chat" buttons for additional support
-- Links to relevant documentation
-- Explanations of what to expect after selecting an option
-This structured presentation makes it clear they're on the right path, as it helps match contributors with appropriate ways to help based on their experience level and interests. The page provides all the initial information needed to start contributing to JabRef, with clear next steps for each path.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: ABI will feel confident she's making progress because:
+- The page provides clear, categorized options for different types of contributors (matches her Information Processing Style for comprehensive understanding)
+- The content is well-structured with distinct sections for different user types (e.g., "I am not a programmer", "I am a student") which helps ABI identify where she fits (supports her low Computer Self-Efficacy)
+- The page offers step-by-step guidance with clear next steps for each category (aligns with her Process-oriented Learning Style)
+- Each option provides specific links and resources, showing a clear path forward
+- The language is welcoming and reassuring ("We are really happy that you are interested in contributing") which helps address her low self-confidence with technology</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yes, ABI would likely feel comfortable with this step of reading the page because:
-1. The page is well-organized and clearly structured with different sections for different types of contributors (students, programmers, lecturers, etc.)
-2. It's very text-based and information-focused, which aligns with Abi's learning style of gathering comprehensive information before proceeding
-3. The page provides multiple pathways and clearly labeled options, which suits Abi's process-oriented and methodical approach
-4. There are helpful links and resources clearly marked throughout (like "list of good first issues" and "CONTRIBUTING.md")
-5. The language is welcoming and encouraging ("We are really happy that you are interested in contributing")
-6. It breaks down options based on experience level and background, which would help Abi self-identify which path might be most appropriate
-7. The page includes specific next steps and documentation links, which would appeal to Abi's preference for thorough understanding and having clear procedures to follow
-Given Abi's characteristics (detail-oriented, comprehensive information gatherer, likes to understand things thoroughly), this page provides enough clear, structured information for her to feel comfortable reading and processing the content as a first step.
-The only potential concern might be that there are several different paths to choose from, which could make Abi want to read everything thoroughly before making a decision - but that actually aligns well with her methodical approach.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: The page is well-structured for ABI to read and understand because:
+- The content is clearly organized with distinct sections for different types of contributors (supports her comprehensive Information Processing Style)
+- The language is simple and welcoming, avoiding overwhelming technical jargon (helps with her low Computer Self-Efficacy)
+- Information is presented in a step-by-step manner with clear categories like "I am not a programmer" vs "I am a programmer" (matches her Process-oriented Learning Style)
+- Each section provides clear next steps and links to follow (supports her need for structured guidance)
+- The page offers multiple paths for contribution based on experience level, making it less intimidating for someone with low technical confidence
+- The explanations are thorough but not overwhelming, with clear indications of what to do next after each option</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Let's analyze if reading this "Contribute to JabRef" page provides clear feedback and necessary information:
-The page offers clear, structured information with multiple paths depending on the contributor's background:
-Clear Feedback Elements:
-1. The page is well-organized with distinct sections for different types of contributors (students, programmers, lecturers)
-2. Each section has specific action items and links
-3. Multiple entry points are provided based on experience level:
-   - For beginners: "I am a student and I want to start with something easy"
-   - For those new to open source
-   - For those wanting bigger challenges
-4. Clear next steps are provided through links to:
-   - List of good first issues
-   - CONTRIBUTING.md guidelines
-   - University projects
-   - Discussion forums
-Progress Indicators:
-- Each section leads to specific resources or documentation
-- Links to community pages and GitHub repositories provide concrete next steps
-- The CONTRIBUTING.md file is repeatedly referenced as an important checkpoint
-Yes, Abi will know they're making progress because:
-1. The page provides clear pathways based on skill level
-2. Each section has specific actionable items
-3. Multiple resources are linked for further guidance
-4. Clear documentation is available for each path
-5. The structure helps identify which category best fits their experience level
-This page effectively guides contributors through their initial steps while providing clear indicators of progress and next actions.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: ABI will know she's making progress because:
+- The page clearly presents different paths based on user type and experience level, helping her identify where she fits (supports her Information Processing Style)
+- Each section has explicit "next steps" with phrases like "After finding something, please check our CONTRIBUTING.md" (matches her Process-oriented Learning Style)
+- The content provides reassurance with welcoming language and clear instructions (helps with her low Computer Self-Efficacy)
+- There are multiple clearly labeled options for different skill levels (e.g., "I am not a programmer", "I am new to open source") which helps her identify the appropriate path
+- Each section concludes with specific next actions and links, confirming she's gathered the right information and knows what to do next
+- The structure guides her through a logical progression from identifying her category to finding specific ways to contribute</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Yes, ABI would know what to do at this step for several reasons:
-1. Clear Visual Organization:
-- The page has clear headings and well-organized sections
-- Different options are distinctly presented with labeled buttons and links
-2. Explicit Guidance:
-- The page specifically mentions "list of good first issues" as a clickable link
-- It's presented under relevant sections like "I am a student and I want to start with something easy" and "I am new to open source"
-3. ABI-Friendly Features:
-- The information is presented in a step-by-step manner
-- The link is clearly highlighted in blue, indicating it's clickable
-- There's contextual information explaining what to do after finding the issues ("After finding something, please check our CONTRIBUTING.md")
-4. Matches ABI's Characteristics:
-- As ABI is thorough and likes to gather information before proceeding
-- She prefers clear, explicit instructions
-- She appreciates knowing what to expect next
-- The page provides both the immediate action (clicking the link) and what follows
-Therefore, this page layout and structure would give ABI enough confidence and clarity to take the action of clicking on the "list of good first issues" link.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Attitude Toward Risk
+Why: ABI would feel comfortable clicking the "list of good first issues" link because:
+- The context clearly explains it's for beginners with the phrase "good issues to start with" (addresses her Risk-averse Attitude)
+- The link appears within a clear, step-by-step instruction that explains what to do before and after clicking (matches her Process-oriented Learning Style)
+- The phrase "good first issues" suggests these are beginner-friendly tasks, making it feel less risky
+- The instruction provides a complete process: "After finding something, please check our CONTRIBUTING.md" (aligns with her Information Processing Style for comprehensive understanding)
+- The link appears in a section specifically targeted at beginners ("I am new to open source"), making it feel appropriate and safe for her skill level</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Yes, this action would help show progress toward the goal of finding something to contribute to JabRef because:
-1. The image shows a GitHub issues page filtered specifically for "good first issues" which is exactly what a new contributor should look for
-2. The list provides clear labels including:
-   - "good first issue" tags (purple)
-   - Type indicators (green tags for "enhancement", "bug", etc.)
-   - Difficulty/status indicators
-3. Each issue has:
-   - A clear title describing the problem
-   - Labels indicating the type and complexity
-   - Number of comments/interactions
-   - When it was opened and by whom
-The interface gives clear feedback that you're viewing beginner-friendly issues through:
-- The search bar showing "is:open label:'good first issue'"
-- Multiple labeled issues matching this criteria
-- A well-organized list with 28 open issues to choose from
-This provides exactly the information needed for someone looking to make their first contribution, allowing them to:
-- Browse different types of issues
-- Find one matching their skill level
-- See how active/recent the issues are
-- Understand what needs to be done
-So yes, this action provides clear confirmation they're on the right path toward finding an appropriate contribution opportunity.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Information Processing Style
+3. None of the Above (Information Overload)
+Why: ABI will likely feel overwhelmed and uncertain because:
+- The GitHub interface presents many technical terms and labels (like "type: enhancement", "entry-editor") that would be unfamiliar to someone with low Computer Self-Efficacy
+- The page shows a long list of issues with multiple technical labels and tags, making it difficult for her comprehensive Information Processing Style to process all the information
+- There's no clear guidance on which issue would be most appropriate for a beginner or how to proceed with selecting one (None of the Above - lack of clear direction)
+- The interface contains many technical elements (pull requests, milestones, labels) without explanation, which would make ABI uncomfortable given her low technical confidence
+- While these are labeled as "good first issues," the technical nature of the descriptions and the overwhelming amount of information would make it difficult for ABI to feel confident she's making progress</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Yes, ABI would likely know what to do at this step for several reasons:
-1. The page layout is clear and familiar (it's a standard GitHub issues page)
-2. The information is well-organized with:
-- Clear issue titles
-- Visible labels (like "good first issue", "type: enhancement", "type: bug")
-- Issue status indicators (open/closed)
-- Sort and filter options at the top
-3. Particularly helpful for ABI:
-- The search bar is prominently displayed
-- Issues are labeled with "good first issue" which helps identify beginner-friendly tasks
-- Each issue has clear tags indicating the type of work needed
-- The page shows thorough information like when issues were opened and by whom
-- Comment counts and other metrics are visible to help gauge difficulty/activity
-Given ABI's characteristics (likes to gather information thoroughly, prefers detailed understanding before acting), this page provides enough context and organization for her to:
-- Read through the issues
-- Understand what each issue involves
-- Use filters/search if needed
-- Click on any issue to learn more
-The clear labeling system and detailed descriptions would give ABI confidence in exploring further without feeling overwhelmed or uncertain about what she's getting into.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude Toward Risk
+3. Information Processing Style
+4. None of the Above (Overwhelming Technical Interface)
+Why: ABI will struggle to take action here because:
+- The page contains many technical terms and labels (like "type: enhancement", "entry-editor", "fetcher") that would be intimidating for someone with low Computer Self-Efficacy
+- There's no clear guidance on which issues are truly appropriate for beginners, making it risky for her risk-averse nature to choose any option
+- Her comprehensive Information Processing Style would be overwhelmed by:
+  * Multiple technical labels on each issue
+  * Various icons and numbers without clear explanation
+  * No clear categorization or organization of issues by difficulty level
+- She won't feel confident clicking on any option because:
+  * No clear indication of what happens after clicking
+  * No explanation of the technical terms used in descriptions
+  * No beginner-friendly pathway or guidance for selection</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>This appears to be a GitHub issue discussion page showing a graph visualization at the top in orange/yellow colors representing some kind of data metrics or activity. The page contains multiple discussion comments and responses from various users, with timestamps and interaction elements like reactions and reply buttons. There's also an image of a mountain landscape with sunset/sunrise lighting included within one of the comments. The format follows GitHub's standard issue layout with nested conversations and markdown formatting. The graph appears to show varying heights of bars or columns, possibly representing code contributions or issue activity over time. The interface includes typical GitHub elements like labels, user avatars, and interaction tools for collaborating on software development issues.
-This appears to be related to a scenario about contributing to JabRef, where someone needs to gather information by reading through available details in the issue thread. Based on the layout and content, this would provide relevant background information needed to understand the issue and potential ways to contribute.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Information Processing Style
+3. None of the Above (Technical Complexity and Layout)
+Why: ABI will feel lost and uncertain about her progress because:
+- The issue page contains complex technical discussions and terminology that would be intimidating for someone with low Computer Self-Efficacy
+- The page layout shows multiple comments, code snippets, and technical discussions that would be overwhelming for her comprehensive Information Processing Style
+- There's no clear indication of:
+  * What she should do next
+  * Whether this is appropriate for her skill level
+  * How to start contributing to this issue
+- The technical nature of the conversation and lack of beginner-friendly guidance would make her doubt if she's on the right track
+- The presence of graphs and technical discussions without clear explanation would further overwhelm her and make her question if she's chosen an appropriate issue to work on</t>
         </is>
       </c>
     </row>

--- a/outputs/DELHI1.xlsx
+++ b/outputs/DELHI1.xlsx
@@ -431,9 +431,9 @@
 3. Learning Style
 Why: This aligns with ABI's characteristics because:
 - ABI prefers to gather comprehensive information before taking action (Information Processing Style)
-- Given her low confidence with unfamiliar tasks (Computer Self-Efficacy), she would want to understand what JabRef is before contributing
+- Given her low confidence with unfamiliar tasks (Computer Self-Efficacy), she would want to understand what she's getting into before contributing
 - Her process-oriented learning style means she would naturally want to read and understand the available information first before proceeding with any contribution
-- The page provides detailed information about JabRef, its features, and contribution guidelines, which supports ABI's need for thorough understanding before taking action</t>
+- The page contains detailed information about JabRef which would help ABI understand what she's working with, making this a natural first step for her comprehensive approach to tasks</t>
         </is>
       </c>
     </row>
@@ -445,11 +445,11 @@
 1. Information Processing Style
 2. Computer Self-Efficacy
 3. None of the Above (Information Overload)
-Why: Although ABI wants to read and understand information thoroughly, she will struggle here because:
-- The page contains an overwhelming amount of technical information and features scattered across different sections (Information Processing Style would be challenged by this)
-- There are many technical terms and jargon (like "BibTeX", "LaTeX", "CiteSeer") without clear explanations, which would make ABI uncomfortable due to her low Computer Self-Efficacy
-- The page layout presents too much information at once without a clear structure or guidance on where to start for new contributors (None of the Above - Information Overload)
-- While ABI wants to gather comprehensive information, the scattered and technical nature of the content would make it difficult for her to process and understand what exactly she needs to read to contribute</t>
+Why: Although ABI wants to gather comprehensive information, this page presents several challenges:
+- The page contains too much technical information and jargon (like "BibTeX", "CiteSeerX", "bibliographic reference management") without clear explanations, which would make ABI uncomfortable due to her low computer self-efficacy
+- The information is overwhelming with multiple sections (Features, Cite, Export, etc.) and a long list of technical updates/changes on the left side, making it difficult for ABI to process all the information comprehensively
+- There's no clear, structured guidance about where to start reading or what information is most relevant for someone wanting to contribute, which doesn't align with ABI's need for clear, step-by-step processes
+- The page layout is complex with multiple sections competing for attention, making it difficult for ABI to know where to focus her reading first</t>
         </is>
       </c>
     </row>
@@ -460,12 +460,13 @@
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
-3. None of the Above (Lack of Clear Progress Indicators)
+3. None of the Above (Lack of Progress Indicators)
 Why: ABI won't be confident she's making progress because:
-- There's no clear indication or feedback that shows she's gathered all the necessary information to start contributing (Information Processing Style needs clear completion markers)
-- With her low Computer Self-Efficacy, she won't be sure if she's understood all the technical information correctly or if she's missed something important
-- The page lacks a clear structure or checklist that would help ABI confirm she's read everything needed (None of the Above - no progress indicators)
-- There's no clear transition point or next steps outlined after reading the information, making it unclear if she's ready to move forward with contributing</t>
+- There's no clear indication or feedback that shows she's gathered all the necessary information to proceed with contributing
+- The page lacks a structured way to confirm she's understood everything needed, which doesn't support her comprehensive information processing style
+- With her low computer self-efficacy, she won't be confident that she's interpreted all the technical information correctly
+- There's no clear "next steps" or checkpoints to validate that she's ready to move forward after reading
+- The information is scattered across different sections without a clear progression path, making it difficult for ABI to know if she's completed reading all relevant information for contributing</t>
         </is>
       </c>
     </row>
@@ -477,12 +478,12 @@
 1. Information Processing Style
 2. Learning Style
 3. Attitude Toward Risk
-Why: ABI would feel comfortable clicking 'Learn how to help' because:
-- The link text "Learn how to help" is clear and descriptive, indicating it will provide instructions on how to contribute (aligns with her Process-oriented Learning Style)
-- The phrase "Learn how" suggests a guided, step-by-step approach which matches ABI's preference for process-oriented learning
-- It's a low-risk action as the text clearly indicates it's for learning purposes (matches her Risk-averse Attitude)
-- The link appears to be a logical next step in gathering comprehensive information about contributing (aligns with her Information Processing Style)
-- The text implies it will provide guidance rather than requiring immediate action or tinkering</t>
+Why: ABI would likely click 'Learn how to help' because:
+- The link text "Learn how to help" is clear and descriptive, indicating it will provide instructions, which aligns with ABI's process-oriented learning style
+- It's a safe, low-risk action as the text clearly indicates it's for learning purposes, matching ABI's risk-averse nature
+- The link appears to be a starting point for getting structured information about contributing, which aligns with her comprehensive information processing style
+- The phrase "Learn how" suggests a tutorial or step-by-step guide, which matches ABI's preference for process-oriented learning
+- It's a clear call-to-action specifically related to her goal of contributing, reducing uncertainty about whether this is the right action to take</t>
         </is>
       </c>
     </row>
@@ -494,12 +495,14 @@
 1. Information Processing Style
 2. Learning Style
 3. Computer Self-Efficacy
-Why: ABI will feel confident she's making progress because:
-- The page provides clear, categorized options for different types of contributors (matches her Information Processing Style for comprehensive understanding)
-- The content is well-structured with distinct sections for different user types (e.g., "I am not a programmer", "I am a student") which helps ABI identify where she fits (supports her low Computer Self-Efficacy)
-- The page offers step-by-step guidance with clear next steps for each category (aligns with her Process-oriented Learning Style)
-- Each option provides specific links and resources, showing a clear path forward
-- The language is welcoming and reassuring ("We are really happy that you are interested in contributing") which helps address her low self-confidence with technology</t>
+4. Attitude Toward Risk
+Why: This page provides clear confirmation of progress because:
+- The page is well-organized with clear categories for different types of contributors (e.g., "I am not a programmer", "I am a student"), which helps ABI identify where she fits in
+- The information is presented in a structured, step-by-step manner that aligns with ABI's process-oriented learning style
+- Each category provides specific next steps and links, reducing uncertainty and risk
+- The welcoming message at the top ("We are really happy that you are interested in contributing") provides reassurance, helping with ABI's low computer self-efficacy
+- The page breaks down contribution options into manageable, clearly-labeled sections that allow for comprehensive understanding before taking action
+- Each option provides clear guidance about what to expect next, which helps ABI feel confident she's on the right path</t>
         </is>
       </c>
     </row>
@@ -511,13 +514,15 @@
 1. Information Processing Style
 2. Learning Style
 3. Computer Self-Efficacy
-Why: The page is well-structured for ABI to read and understand because:
-- The content is clearly organized with distinct sections for different types of contributors (supports her comprehensive Information Processing Style)
-- The language is simple and welcoming, avoiding overwhelming technical jargon (helps with her low Computer Self-Efficacy)
-- Information is presented in a step-by-step manner with clear categories like "I am not a programmer" vs "I am a programmer" (matches her Process-oriented Learning Style)
-- Each section provides clear next steps and links to follow (supports her need for structured guidance)
-- The page offers multiple paths for contribution based on experience level, making it less intimidating for someone with low technical confidence
-- The explanations are thorough but not overwhelming, with clear indications of what to do next after each option</t>
+4. Attitude Toward Risk
+Why: The page is well-designed for ABI to read and understand because:
+- Information is clearly categorized into different user types (non-programmer, student, new to open source, etc.), making it easy for ABI to identify which section applies to her
+- The content is presented in a structured, step-by-step manner that matches ABI's process-oriented learning style
+- The language is welcoming and supportive ("We are really happy that you are interested"), which helps with ABI's low computer self-efficacy
+- Each section provides clear, specific next steps and expectations, reducing uncertainty and risk
+- The information is presented in digestible chunks rather than overwhelming technical details
+- Links are clearly labeled with their purpose (e.g., "list of good first issues", "CONTRIBUTING.md"), helping ABI understand what she'll find before clicking
+- The page provides multiple options with clear descriptions, allowing ABI to comprehensively process the information before making a choice</t>
         </is>
       </c>
     </row>
@@ -529,13 +534,16 @@
 1. Information Processing Style
 2. Learning Style
 3. Computer Self-Efficacy
-Why: ABI will know she's making progress because:
-- The page clearly presents different paths based on user type and experience level, helping her identify where she fits (supports her Information Processing Style)
-- Each section has explicit "next steps" with phrases like "After finding something, please check our CONTRIBUTING.md" (matches her Process-oriented Learning Style)
-- The content provides reassurance with welcoming language and clear instructions (helps with her low Computer Self-Efficacy)
-- There are multiple clearly labeled options for different skill levels (e.g., "I am not a programmer", "I am new to open source") which helps her identify the appropriate path
-- Each section concludes with specific next actions and links, confirming she's gathered the right information and knows what to do next
-- The structure guides her through a logical progression from identifying her category to finding specific ways to contribute</t>
+4. Attitude Toward Risk
+Why: After reading the page, ABI will know she's making progress because:
+- The page clearly presents different paths for contribution based on user type, helping ABI identify where she fits in and what next steps to take
+- Each section provides explicit next steps (e.g., "After finding something, please check our CONTRIBUTING.md"), giving ABI clear direction
+- The information is presented in a logical, step-by-step manner that matches her process-oriented learning style
+- The language is supportive and welcoming, which helps with her low computer self-efficacy
+- Each option comes with clear expectations and outcomes, reducing uncertainty and risk
+- Links are clearly labeled with their purpose, helping ABI understand what information she'll find next
+- The structure allows for comprehensive understanding before making a choice, aligning with her information processing style
+- There are clear indicators of what to do next for each category (like checking CONTRIBUTING.md or looking at specific lists), confirming she's on the right path</t>
         </is>
       </c>
     </row>
@@ -547,12 +555,14 @@
 1. Information Processing Style
 2. Learning Style
 3. Attitude Toward Risk
+4. Computer Self-Efficacy
 Why: ABI would feel comfortable clicking the "list of good first issues" link because:
-- The context clearly explains it's for beginners with the phrase "good issues to start with" (addresses her Risk-averse Attitude)
-- The link appears within a clear, step-by-step instruction that explains what to do before and after clicking (matches her Process-oriented Learning Style)
-- The phrase "good first issues" suggests these are beginner-friendly tasks, making it feel less risky
-- The instruction provides a complete process: "After finding something, please check our CONTRIBUTING.md" (aligns with her Information Processing Style for comprehensive understanding)
-- The link appears in a section specifically targeted at beginners ("I am new to open source"), making it feel appropriate and safe for her skill level</t>
+- The link is clearly labeled and its purpose is explicitly explained in context ("We collect good issues to start with at our list of good first issues")
+- The phrase "good first issues" suggests beginner-friendly tasks, which aligns with ABI's risk-averse nature
+- The link appears within a clear step-by-step process ("After finding something, please check our CONTRIBUTING.md"), matching her process-oriented learning style
+- The context provides clear expectations about what she'll find, reducing uncertainty for someone with low computer self-efficacy
+- The link is presented as part of a comprehensive path for new contributors, aligning with her information processing style
+- The word "first" in the link text suggests these are appropriate starting points, making it feel less risky for ABI</t>
         </is>
       </c>
     </row>
@@ -563,13 +573,16 @@
 Facets:
 1. Computer Self-Efficacy
 2. Information Processing Style
-3. None of the Above (Information Overload)
-Why: ABI will likely feel overwhelmed and uncertain because:
-- The GitHub interface presents many technical terms and labels (like "type: enhancement", "entry-editor") that would be unfamiliar to someone with low Computer Self-Efficacy
-- The page shows a long list of issues with multiple technical labels and tags, making it difficult for her comprehensive Information Processing Style to process all the information
-- There's no clear guidance on which issue would be most appropriate for a beginner or how to proceed with selecting one (None of the Above - lack of clear direction)
-- The interface contains many technical elements (pull requests, milestones, labels) without explanation, which would make ABI uncomfortable given her low technical confidence
-- While these are labeled as "good first issues," the technical nature of the descriptions and the overwhelming amount of information would make it difficult for ABI to feel confident she's making progress</t>
+3. Attitude Toward Risk
+4. None of the Above (Overwhelming Interface)
+Why: ABI will likely feel overwhelmed and uncertain about her progress because:
+- The GitHub interface presents a complex view with multiple technical terms and labels (like "type: enhancement", "entry-editor", "status: stale") that would be unfamiliar to someone with low computer self-efficacy
+- The page shows numerous issues with various technical tags and labels without clear explanation of what they mean, making it difficult for ABI's comprehensive information processing style
+- There's no clear guidance or structure about how to proceed or which issue would be most appropriate for a beginner
+- The interface is overwhelming with multiple columns, icons, and numbers that aren't clearly explained
+- The technical nature of issue descriptions and lack of clear "next steps" would make ABI uncertain about whether she's making progress
+- Her risk-averse nature would make her hesitant to proceed without clear understanding of what each issue entails and what skills are needed
+- The page lacks any beginner-friendly organization or explanation of how to interpret and use the information presented</t>
         </is>
       </c>
     </row>
@@ -579,20 +592,17 @@
           <t>Answer: NO
 Facets:
 1. Computer Self-Efficacy
-2. Attitude Toward Risk
-3. Information Processing Style
-4. None of the Above (Overwhelming Technical Interface)
-Why: ABI will struggle to take action here because:
-- The page contains many technical terms and labels (like "type: enhancement", "entry-editor", "fetcher") that would be intimidating for someone with low Computer Self-Efficacy
-- There's no clear guidance on which issues are truly appropriate for beginners, making it risky for her risk-averse nature to choose any option
-- Her comprehensive Information Processing Style would be overwhelmed by:
-  * Multiple technical labels on each issue
-  * Various icons and numbers without clear explanation
-  * No clear categorization or organization of issues by difficulty level
-- She won't feel confident clicking on any option because:
-  * No clear indication of what happens after clicking
-  * No explanation of the technical terms used in descriptions
-  * No beginner-friendly pathway or guidance for selection</t>
+2. Information Processing Style
+3. Attitude Toward Risk
+4. None of the Above (Technical Complexity)
+Why: ABI will struggle to take action because:
+- The page presents multiple technical terms and labels (like "type: enhancement", "fetcher", "GUI") without explanation, which would be intimidating for someone with low computer self-efficacy
+- There's no clear guidance about which issues are truly appropriate for beginners, despite the "good first issue" label, making it risky for ABI's risk-averse nature
+- The issues contain technical jargon and concepts (like "BibTeX", "ACM fetcher", "XML import") that ABI might not understand, making it difficult to process information comprehensively
+- There's no structured way to evaluate which issues would match her skills or experience level
+- The interface lacks clear instructions or guidance about how to proceed or what clicking on an issue would entail
+- Her risk-averse nature would make her hesitant to click on issues without understanding the full implications or requirements
+- The overwhelming number of options and technical terminology would make it difficult for ABI to feel confident about any choice</t>
         </is>
       </c>
     </row>
@@ -601,18 +611,19 @@
         <is>
           <t>Answer: NO
 Facets:
-1. Computer Self-Efficacy
-2. Information Processing Style
-3. None of the Above (Technical Complexity and Layout)
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. None of the Above (Complex Technical Discussion)
 Why: ABI will feel lost and uncertain about her progress because:
-- The issue page contains complex technical discussions and terminology that would be intimidating for someone with low Computer Self-Efficacy
-- The page layout shows multiple comments, code snippets, and technical discussions that would be overwhelming for her comprehensive Information Processing Style
-- There's no clear indication of:
-  * What she should do next
-  * Whether this is appropriate for her skill level
-  * How to start contributing to this issue
-- The technical nature of the conversation and lack of beginner-friendly guidance would make her doubt if she's on the right track
-- The presence of graphs and technical discussions without clear explanation would further overwhelm her and make her question if she's chosen an appropriate issue to work on</t>
+- The issue page shows a complex technical discussion with multiple participants and technical terms that would be overwhelming for someone with low computer self-efficacy
+- The conversation thread is long and contains technical details without clear structure or summary, making it difficult for ABI's comprehensive information processing style
+- There's no clear indication of what a new contributor should do or how to start contributing to this issue
+- The page lacks step-by-step guidance or clear instructions that would align with ABI's process-oriented learning style
+- The technical nature of the discussion and graphs/charts without clear explanation would be intimidating
+- There's no clear indication of whether this is an appropriate issue for a beginner or what skills are needed
+- The format of GitHub discussions (with multiple comments, references, and technical details) doesn't provide the structured learning environment ABI needs
+- The absence of clear next steps or guidance would make ABI uncertain about whether she's making progress</t>
         </is>
       </c>
     </row>
